--- a/TIMES-NZ/SuppXLS/Scen_Carbon_Budgets.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_Carbon_Budgets.xlsx
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -431,12 +431,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>

--- a/TIMES-NZ/SuppXLS/Scen_Carbon_Budgets.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_Carbon_Budgets.xlsx
@@ -424,14 +424,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
